--- a/Personal/xueyu/plan/week13-2018-04-27.xlsx
+++ b/Personal/xueyu/plan/week13-2018-04-27.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9BD27C-1DD7-4F19-8984-CF81CD8DE671}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CD9571-1CCB-41F2-A802-89D53735FAF9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,26 @@
   </si>
   <si>
     <t>20:00-22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:20之前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:20: - 23:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -442,14 +462,68 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -459,6 +533,72 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -466,9 +606,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,131 +624,35 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -895,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -914,24 +955,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="96"/>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
@@ -958,7 +999,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="54">
+      <c r="A3" s="51">
         <v>43217</v>
       </c>
       <c r="B3" s="34" t="s">
@@ -974,11 +1015,11 @@
       <c r="F3" s="13"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="58"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="97"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="34" t="s">
         <v>11</v>
       </c>
@@ -992,11 +1033,11 @@
       <c r="F4" s="13"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="59"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="98"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
@@ -1010,308 +1051,320 @@
       <c r="F5" s="13"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="60"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="99"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="79"/>
+      <c r="C6" s="89"/>
       <c r="D6" s="15"/>
       <c r="E6" s="25"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="66"/>
+      <c r="G6" s="77"/>
       <c r="H6" s="38"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="62"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="73"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="37"/>
-      <c r="C7" s="80"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="67"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="39"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="62"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="37"/>
-      <c r="C8" s="81"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="70"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="39"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="62"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="73"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="85"/>
+      <c r="A9" s="107">
+        <v>43219</v>
+      </c>
       <c r="B9" s="43"/>
-      <c r="C9" s="71"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="73"/>
+      <c r="G9" s="83"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="83"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="86"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="72"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="74"/>
+      <c r="G10" s="84"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="84"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="86"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="19"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="75"/>
+      <c r="G11" s="85"/>
       <c r="H11" s="45"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="84"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="97"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="100"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="104"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="98"/>
-      <c r="B13" s="92"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="7"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="101"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="98"/>
-      <c r="B14" s="68"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="27"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="41"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="101"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="71"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="20"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="101"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="71"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
-      <c r="B16" s="69"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="27"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="101"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="71"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="98"/>
-      <c r="B17" s="68"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="101"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="71"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="99"/>
-      <c r="B18" s="92"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="4"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="102"/>
-    </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="89"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="87"/>
-      <c r="B20" s="82"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="71"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="66"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="72"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="51"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="90"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="87"/>
-      <c r="B21" s="93"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="5"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="90"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="56"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="87"/>
-      <c r="B22" s="94"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="5"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="90"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="56"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="87"/>
-      <c r="B23" s="94"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="96"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="36"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="90"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="88"/>
-      <c r="B24" s="30"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="5"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="91"/>
-    </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="48"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="56"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="53"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="57"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="100"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="7"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="48"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="102"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="100"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="27"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="41"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="48"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="102"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="20"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="41"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="48"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="102"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="101"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="4"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="48"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="A30" s="101"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="102"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
@@ -1469,40 +1522,53 @@
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
     </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="I19:I24"/>
-    <mergeCell ref="J19:J24"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="I12:I18"/>
-    <mergeCell ref="J12:J18"/>
+  <mergeCells count="33">
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="I3:I5"/>
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="I6:I8"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B15:B17"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="C6:C8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="J25:J29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="I20:I25"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="I13:I19"/>
+    <mergeCell ref="J13:J19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
